--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{814118E0-3E30-4AF4-AC43-C7DDC010677B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6810B-4D8C-49F4-98C7-5D19D2A0E546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6810B-4D8C-49F4-98C7-5D19D2A0E546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35F3A9-4DD4-40BE-A4A3-E90F100ADBD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail - Copy\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6810B-4D8C-49F4-98C7-5D19D2A0E546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFDB133-740B-4ED6-90AC-647362E05E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -476,13 +476,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail - Copy\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFDB133-740B-4ED6-90AC-647362E05E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,19 +70,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,111 +96,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -213,14 +119,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{727C3DCD-B10A-41CF-A62E-2CDD3B41CEA8}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{0FC65DF8-2847-449F-B166-B6432FDDE7E1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Mana"/>
-    <tableColumn id="3" name="Attack"/>
-    <tableColumn id="4" name="Health"/>
-    <tableColumn id="5" name="Text"/>
+    <tableColumn id="1" xr3:uid="{6DA3540B-3F2A-4F8C-9D43-1A7B1C9333A3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{1E092B40-7EEF-4C2B-BF39-1BF6F7E030FC}" name="Mana"/>
+    <tableColumn id="3" xr3:uid="{8E6C9FBA-8472-4C3D-B62D-32953F1B40ED}" name="Attack"/>
+    <tableColumn id="4" xr3:uid="{0D8EDC7B-80DD-4101-A3C2-F6E97195097D}" name="Health"/>
+    <tableColumn id="5" xr3:uid="{B5AC6231-8B13-4DDA-B262-A7A3AB53CCB1}" name="Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,17 +428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA3343-42FB-42FE-8E62-BDDC827A7712}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA3343-42FB-42FE-8E62-BDDC827A7712}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -583,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -602,8 +507,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail - Copy\xltrailTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFDB133-740B-4ED6-90AC-647362E05E4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6810B-4D8C-49F4-98C7-5D19D2A0E546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -476,13 +476,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail - Copy\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6810B-4D8C-49F4-98C7-5D19D2A0E546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D37A8-0F81-466C-BF1D-C7B8A50BC295}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/GodsUnchainedSourceOfTruth.xlsx
+++ b/GodsUnchainedSourceOfTruth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMBO\Desktop\XLTrail\xltrailTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD35F3A9-4DD4-40BE-A4A3-E90F100ADBD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D316BF-8188-4166-B506-A82CB2F00A50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17680" xr2:uid="{770EED2D-E9A5-4A81-8429-54C42AC4F7E7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>Maybe</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +81,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +449,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -476,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -493,13 +510,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -507,8 +524,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>